--- a/CH-188 Matrix Calculation.xlsx
+++ b/CH-188 Matrix Calculation.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468959B7-9786-4E71-AAD4-1E545E98CB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A66228-CAFA-46F4-BFB9-A2CEF4997E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$A$1:$C$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$A$1:$C$18</definedName>
+    <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
+    <definedName name="ma">_xlfn.LAMBDA(_xlpm.n,_xlfn.MAKEARRAY(_xlpm.n,_xlpm.n,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(_xlpm.r=_xlpm.c,1,0))))</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,8 +42,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Question</t>
   </si>
@@ -63,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,8 +138,23 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +179,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -322,8 +375,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -400,8 +455,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Intro_Hd" xfId="2" xr:uid="{17B3134F-8CE8-42D0-A8DA-C645D20D63BA}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{56FE5537-3ED5-4A2E-88A3-475D5CBBA395}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -788,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,7 +861,7 @@
     <col min="19" max="25" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
@@ -829,7 +886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
       <c r="C2"/>
       <c r="D2" s="2"/>
@@ -848,7 +905,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
@@ -874,8 +931,18 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-    </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB3" s="1" cm="1">
+        <f t="array" ref="AB3:AD5">_xlfn.LAMBDA(_xlpm.n,_xlfn.MAKEARRAY(_xlpm.n,_xlpm.n,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(_xlpm.r=_xlpm.c,1,0))))(3)</f>
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4"/>
       <c r="D4" s="6"/>
@@ -899,8 +966,17 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-    </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5"/>
       <c r="D5" s="6"/>
@@ -924,8 +1000,17 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6"/>
       <c r="D6" s="6"/>
@@ -944,7 +1029,7 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7"/>
       <c r="D7" s="6"/>
@@ -963,7 +1048,7 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
     </row>
-    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8"/>
       <c r="D8" s="6"/>
@@ -982,7 +1067,7 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>3</v>
       </c>
@@ -1013,7 +1098,7 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10"/>
       <c r="D10" s="6"/>
@@ -1042,7 +1127,7 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11"/>
       <c r="D11" s="6"/>
@@ -1071,7 +1156,7 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12"/>
       <c r="D12" s="6"/>
@@ -1100,7 +1185,7 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="D13" s="6"/>
       <c r="E13" s="13">
@@ -1119,15 +1204,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="D16" s="6"/>
     </row>
@@ -1360,4 +1445,878 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD340E9-377C-4BA5-8917-06EE9DA9FFB3}">
+  <dimension ref="A1:AD24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="8" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="4.75" customWidth="1"/>
+    <col min="5" max="18" width="3.125" style="4" customWidth="1"/>
+    <col min="19" max="25" width="3.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="E1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="Z1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3"/>
+      <c r="C2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="20">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7" cm="1">
+        <f t="array" ref="O3:Q5">ma(3)</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="AB3" s="1" cm="1">
+        <f t="array" ref="AB3:AD5">_xlfn.LAMBDA(_xlpm.n,_xlfn.MAKEARRAY(_xlpm.n,_xlpm.n,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(_xlpm.r=_xlpm.c,1,0))))(3)</f>
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+      <c r="C5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>1</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7" cm="1">
+        <f t="array" ref="O9:S13">ma(5)</f>
+        <v>1</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>1</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="21">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="20">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4" cm="1">
+        <f t="array" ref="O17:V24">ma(8)</f>
+        <v>1</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="16">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="16">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>1</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
+        <v>1</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0</v>
+      </c>
+      <c r="K20" s="11">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="18">
+        <v>1</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="16">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="18">
+        <v>1</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="18">
+        <v>1</v>
+      </c>
+      <c r="L23" s="16">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
+      <c r="I24" s="14">
+        <v>0</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0</v>
+      </c>
+      <c r="K24" s="14">
+        <v>0</v>
+      </c>
+      <c r="L24" s="21">
+        <v>1</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:R1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B17:C17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>